--- a/MyShopProject/Commonfolder/PartyDelete.xlsx
+++ b/MyShopProject/Commonfolder/PartyDelete.xlsx
@@ -14,27 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Shop_Code</t>
+    <t>Outlet ID</t>
   </si>
   <si>
-    <t>432_1879749332599</t>
+    <t>192784</t>
   </si>
   <si>
-    <t>432_1879749333755</t>
+    <t>199922</t>
+  </si>
+  <si>
+    <t>172428</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,22 +104,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,9 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A561"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -399,17 +408,19 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5"/>
